--- a/inst/extdata/input/as_sheet.xlsx
+++ b/inst/extdata/input/as_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzamzo\Documents\R\git\kwb.fcr\inst\extdata\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93CB559-C5CE-4F3E-95E0-3BE484BA0A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31BBEBA-2CF2-4412-8371-E8B6CC3C41B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="1040" windowWidth="9320" windowHeight="7880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
   <si>
     <t>Environmental Fact Sheet - Description</t>
   </si>
@@ -401,6 +401,18 @@
   </si>
   <si>
     <t>PNEC_water</t>
+  </si>
+  <si>
+    <t>fert_app</t>
+  </si>
+  <si>
+    <t>yearly fertilizer application</t>
+  </si>
+  <si>
+    <t>kg /(ha*a)</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -544,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,8 +778,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1017,6 +1035,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1062,7 +1093,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1121,6 +1152,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1505,13 +1538,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:BY33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1949,7 +1982,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:77" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>116</v>
       </c>
@@ -1977,7 +2010,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:77" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>117</v>
       </c>
@@ -2005,7 +2038,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>70</v>
       </c>
@@ -2031,7 +2064,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>71</v>
       </c>
@@ -2057,7 +2090,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:77" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>23</v>
       </c>
@@ -2085,7 +2118,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:77" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>118</v>
       </c>
@@ -2107,7 +2140,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:77" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>119</v>
       </c>
@@ -2129,7 +2162,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:77" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>120</v>
       </c>
@@ -2151,7 +2184,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:77" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>121</v>
       </c>
@@ -2173,7 +2206,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>55</v>
       </c>
@@ -2201,7 +2234,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>16</v>
       </c>
@@ -2227,7 +2260,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>26</v>
       </c>
@@ -2255,74 +2288,143 @@
       <c r="I28" s="6"/>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="33">
+        <v>0</v>
+      </c>
+      <c r="E29" s="34">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="43"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="43"/>
+      <c r="AY29" s="43"/>
+      <c r="AZ29" s="43"/>
+      <c r="BA29" s="43"/>
+      <c r="BB29" s="43"/>
+      <c r="BC29" s="43"/>
+      <c r="BD29" s="43"/>
+      <c r="BE29" s="43"/>
+      <c r="BF29" s="43"/>
+      <c r="BG29" s="43"/>
+      <c r="BH29" s="43"/>
+      <c r="BI29" s="43"/>
+      <c r="BJ29" s="43"/>
+      <c r="BK29" s="43"/>
+      <c r="BL29" s="43"/>
+      <c r="BM29" s="43"/>
+      <c r="BN29" s="43"/>
+      <c r="BO29" s="43"/>
+      <c r="BP29" s="43"/>
+      <c r="BQ29" s="43"/>
+      <c r="BR29" s="43"/>
+      <c r="BS29" s="43"/>
+      <c r="BT29" s="43"/>
+      <c r="BU29" s="43"/>
+      <c r="BV29" s="43"/>
+      <c r="BW29" s="43"/>
+      <c r="BX29" s="43"/>
+      <c r="BY29" s="43"/>
+    </row>
+    <row r="30" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B30" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C30" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D30" s="33">
         <f>89/750*60</f>
         <v>7.12</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E30" s="34">
         <f>103/750*60</f>
         <v>8.24</v>
       </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H30" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="25"/>
-    </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="s">
+      <c r="I30" s="12"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B31" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C31" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D31" s="26">
         <v>21</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="26">
-        <v>7</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7">
@@ -2337,31 +2439,57 @@
       <c r="I31" s="7"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="26">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B33" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C33" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D33" s="28">
         <v>3.2</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29">
-        <v>0</v>
-      </c>
-      <c r="G32" s="29" t="s">
+      <c r="E33" s="29"/>
+      <c r="F33" s="29">
+        <v>0</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H33" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
